--- a/homework3a/table.xlsx
+++ b/homework3a/table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cory-PC\Desktop\homework3a\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Cory-PC\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2ED4C2-5B20-4A29-B2DB-A31264E99FCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2255EE4-8A18-4802-A76C-1081678E99C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-20610" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="55">
   <si>
     <t>Address</t>
   </si>
@@ -87,9 +87,6 @@
     <t>int</t>
   </si>
   <si>
-    <t>char pointer?</t>
-  </si>
-  <si>
     <t>char</t>
   </si>
   <si>
@@ -102,16 +99,10 @@
     <t>dummy</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
     <t>B</t>
-  </si>
-  <si>
-    <t>Hi</t>
   </si>
   <si>
     <r>
@@ -165,13 +156,82 @@
     </r>
   </si>
   <si>
-    <t>https://www.quora.com/Can-you-increment-a-char-in-C</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
     <t>i</t>
+  </si>
+  <si>
+    <t>A in ASCII is 65, ++ =66 which = B</t>
+  </si>
+  <si>
+    <t>0 when print as int, ASCII 0=null</t>
+  </si>
+  <si>
+    <t>1 represents what was entered in command line "./homework3a"</t>
+  </si>
+  <si>
+    <t>char*</t>
+  </si>
+  <si>
+    <t>char**</t>
+  </si>
+  <si>
+    <t>1163988720 (garbage number)</t>
+  </si>
+  <si>
+    <t>0x7ffc4ddfd6ac</t>
+  </si>
+  <si>
+    <t>0x7ffc4ddfd6a0</t>
+  </si>
+  <si>
+    <t>0x7ffc4ddfd7b8</t>
+  </si>
+  <si>
+    <t>0x7ffc4ddfd6cc</t>
+  </si>
+  <si>
+    <t>0x7ffc4ddfd6c8</t>
+  </si>
+  <si>
+    <t>0x7ffc4ddfd6c7</t>
+  </si>
+  <si>
+    <t>0x7ffc4ddfd6c6</t>
+  </si>
+  <si>
+    <t>0x7ffc4ddfd6c0</t>
+  </si>
+  <si>
+    <t>0x7ffc4ddfd6b0</t>
+  </si>
+  <si>
+    <t>0x7ffc4ddfd6b1</t>
+  </si>
+  <si>
+    <t>0x7ffc4ddfd6b2</t>
+  </si>
+  <si>
+    <t>0x7ffc4ddfd68c</t>
+  </si>
+  <si>
+    <t>0x7ffc4ddfd688</t>
+  </si>
+  <si>
+    <t>0x7ffc4ddfd680</t>
+  </si>
+  <si>
+    <t>0x7ffc4ddfd67c</t>
+  </si>
+  <si>
+    <t>show the address stored in the variable, not the characters stored at the address.</t>
+  </si>
+  <si>
+    <t>Address conversion for ranking</t>
+  </si>
+  <si>
+    <t>sizeof (bytes)</t>
   </si>
 </sst>
 </file>
@@ -252,12 +312,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -573,18 +634,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -600,9 +666,17 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1"/>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
@@ -610,25 +684,48 @@
         <v>19</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>1708</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3">
+        <v>8</v>
+      </c>
+      <c r="H3">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
@@ -636,14 +733,22 @@
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
+        <v>36</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -651,104 +756,161 @@
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+        <v>24</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
+        <v>25</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E8" s="1">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="B10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="B11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1"/>
+        <v>22</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1714</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="B12" s="1" t="s">
         <v>15</v>
       </c>
@@ -756,66 +918,96 @@
         <v>19</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1672</v>
+      </c>
+      <c r="I13" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="G14">
+        <v>8</v>
+      </c>
+      <c r="H14">
+        <v>1664</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
       <c r="B15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>1660</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F13" r:id="rId1" xr:uid="{AB9ACD3A-C599-4035-B78E-0674092296FE}"/>
-  </hyperlinks>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
